--- a/pred_ohlcv/54_21/2020-01-19 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 LTC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>624.9915999999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>612.2364</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>617.5564000000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>835.4199000000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>835.3947000000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>840.6577000000001</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>842.3661000000001</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>804.0133000000001</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>804.0133000000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>804.0133000000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>813.6946</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1022.8296</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1842.732</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1961.097</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2626.45319639</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2529.78039639</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2589.29589639</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2715.12699639</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2715.12699639</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2791.35539639</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2791.47529639</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2757.002796390001</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2757.002796390001</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2759.823896390001</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2803.593396390001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>3193.63730433</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>3193.63730433</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3170.444604329999</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3170.452604329999</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3074.701704329999</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>2942.171404329999</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2591.24320433</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2600.557004329999</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2600.557004329999</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2633.390804329999</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2643.390804329999</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2643.390804329999</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2643.398804329999</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2678.767561719999</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2678.767561719999</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2678.767561719999</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2634.357561719999</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2633.204661719999</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2633.212661719999</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>2633.212661719999</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2615.997061719999</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2637.198761719999</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2640.589261719999</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2598.751261719999</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2605.603261719999</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2663.770661719999</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2660.851161719999</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2661.114361719999</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2661.114361719999</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2660.329261719999</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2661.654261719998</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2547.335261719998</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2507.597761719998</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2507.056261719998</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2517.566261719999</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2517.885961719999</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2517.885961719999</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2590.987361719999</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2575.081661719999</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2555.081661719999</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2546.081661719999</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>2443.676261719999</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2307.522961719999</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2160.389261719999</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2158.650261719999</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1774.557861719999</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-601.635609770001</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-1181.977205880001</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-1051.558805880001</v>
       </c>
       <c r="H612">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-1064.947827780001</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-1064.947827780001</v>
       </c>
       <c r="H642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-1064.947827780001</v>
       </c>
       <c r="H643">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-1094.149527780001</v>
       </c>
       <c r="H644">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-1093.549527780001</v>
       </c>
       <c r="H645">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-1083.563127780001</v>
       </c>
       <c r="H646">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-1075.563127780001</v>
       </c>
       <c r="H647">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-1075.549927780001</v>
       </c>
       <c r="H648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-1081.273927780001</v>
       </c>
       <c r="H650">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-1199.499226750001</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-1199.820403690001</v>
       </c>
       <c r="H658">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-1197.455403690001</v>
       </c>
       <c r="H659">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-1228.050703690001</v>
       </c>
       <c r="H660">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-1266.364603690001</v>
       </c>
       <c r="H661">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-1156.506103690001</v>
       </c>
       <c r="H662">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H664">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H665">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H666">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H667">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-1302.084803690001</v>
       </c>
       <c r="H668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-1298.449303690001</v>
       </c>
       <c r="H669">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-1298.449303690001</v>
       </c>
       <c r="H670">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-1299.462503690001</v>
       </c>
       <c r="H671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-1446.471603690001</v>
       </c>
       <c r="H672">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-1454.944803690001</v>
       </c>
       <c r="H673">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-1203.994803690001</v>
       </c>
       <c r="H676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-1081.477303690001</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1486.950003690001</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-1490.946803690001</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-1493.919803690001</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-1429.059603690001</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-1420.524503690001</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-1410.781403690001</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-1056.058603690001</v>
       </c>
       <c r="H716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-1366.765503690001</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-1735.772703690001</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-1602.787903690001</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-1202.787903690001</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-1002.368103690001</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-708.532719830001</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="871" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 LTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 LTC ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>624.9915999999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>612.2364</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>617.5564000000001</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>835.4199000000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>835.3947000000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>840.6577000000001</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>842.3661000000001</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>804.0133000000001</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>804.0133000000001</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>804.0133000000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>813.6946</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>1022.8296</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1842.732</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1961.097</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>2626.45319639</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>2529.78039639</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>2589.29589639</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -990,7 +990,7 @@
         <v>2815.71999639</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>2815.71999639</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>2756.76159639</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>2766.76159639</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>2695.61699639</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>2813.01349639</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>2758.09679639</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2777.16629639</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2761.86119639</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2798.75829639</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2715.12699639</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2715.12699639</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2791.35539639</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>2791.47529639</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>2757.002796390001</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>2757.002796390001</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>2759.823896390001</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>2803.593396390001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>2884.280796390001</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>2889.200796390001</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>2889.200796390001</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>2943.679696390001</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>2937.058696390001</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>2827.925296390001</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>2861.312096390001</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>3170.444604329999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>3170.452604329999</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>3071.061704329999</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>3074.701704329999</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>2591.24320433</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2591.251204329999</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>2611.251204329999</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>2600.557004329999</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>2600.557004329999</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>2633.390804329999</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>2643.390804329999</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>2643.390804329999</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>2643.398804329999</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>2678.767561719999</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>2678.767561719999</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>2678.767561719999</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2634.357561719999</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2633.204661719999</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2633.212661719999</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>2633.212661719999</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2615.997061719999</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2637.198761719999</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2640.589261719999</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2598.751261719999</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2605.603261719999</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2663.770661719999</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2660.851161719999</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2661.114361719999</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2661.114361719999</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2660.329261719999</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2661.654261719998</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2547.335261719998</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2507.597761719998</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2507.056261719998</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2517.566261719999</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2517.885961719999</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2517.885961719999</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2590.987361719999</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2575.081661719999</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2555.081661719999</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2546.081661719999</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>2443.676261719999</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2307.522961719999</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2170.389261719999</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2160.389261719999</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2158.650261719999</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>1774.557861719999</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1628.235661719999</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>252.1476479099991</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>228.2672201199991</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>260.0181201199991</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>257.9463201199991</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>257.9463201199991</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>398.2010551099992</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-601.635609770001</v>
       </c>
       <c r="H544">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-1181.977205880001</v>
       </c>
       <c r="H607">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-1122.170205880001</v>
       </c>
       <c r="H608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-1079.334005880001</v>
       </c>
       <c r="H609">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-1071.355905880001</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-1064.947827780001</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-1064.947827780001</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-1064.947827780001</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-1094.149527780001</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-1093.549527780001</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-1083.563127780001</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-1075.563127780001</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-1075.549927780001</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-1085.549927780001</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-1081.273927780001</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-1079.430027780001</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-1079.430027780001</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-979.3646267500012</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-1199.499226750001</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-1199.450103690001</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-1199.820403690001</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-1197.455403690001</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-1228.050703690001</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-1266.364603690001</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-1156.506103690001</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-1301.084803690001</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-1302.084803690001</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-1298.449303690001</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-1298.449303690001</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-1299.462503690001</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-1446.471603690001</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-1454.944803690001</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-1203.994803690001</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-1064.734703690001</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-1110.300203690001</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-1480.989903690001</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-1476.950003690001</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-1476.950003690001</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-1486.950003690001</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-1486.950003690001</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-1490.946803690001</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-1493.919803690001</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-1429.059603690001</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-1420.524503690001</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-1410.781403690001</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-1401.781403690001</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-1402.572403690001</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-1056.058603690001</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-1078.784803690001</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-1033.901503690001</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-936.7168036900009</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-1180.376903690001</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-1300.124503690001</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-1279.615503690001</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-1340.117303690001</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-1413.133503690001</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-1411.354003690001</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-1411.976003690001</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-1416.825303690001</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-1366.765503690001</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-1735.772703690001</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-1602.787903690001</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-1202.787903690001</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-1002.368103690001</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-1002.368103690001</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-1202.369303690001</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-1098.769303690001</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>-708.532719830001</v>
       </c>
       <c r="H870">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
